--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Alcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N2">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q2">
-        <v>10.72418440054</v>
+        <v>1.480190678045334</v>
       </c>
       <c r="R2">
-        <v>96.51765960486001</v>
+        <v>13.321716102408</v>
       </c>
       <c r="S2">
-        <v>0.005591217971378119</v>
+        <v>0.001561168186257561</v>
       </c>
       <c r="T2">
-        <v>0.005591217971378118</v>
+        <v>0.001561168186257561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.923774</v>
       </c>
       <c r="O3">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P3">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q3">
-        <v>12.03240979761</v>
+        <v>8.823138765462</v>
       </c>
       <c r="R3">
-        <v>108.29168817849</v>
+        <v>79.408248889158</v>
       </c>
       <c r="S3">
-        <v>0.006273281341189508</v>
+        <v>0.00930583049054523</v>
       </c>
       <c r="T3">
-        <v>0.006273281341189508</v>
+        <v>0.009305830490545232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H4">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N4">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O4">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P4">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q4">
-        <v>305.448592593575</v>
+        <v>127.8787844541247</v>
       </c>
       <c r="R4">
-        <v>2749.037333342175</v>
+        <v>1150.909060087122</v>
       </c>
       <c r="S4">
-        <v>0.1592503071986858</v>
+        <v>0.1348747110410818</v>
       </c>
       <c r="T4">
-        <v>0.1592503071986858</v>
+        <v>0.1348747110410819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H5">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N5">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O5">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P5">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q5">
-        <v>4.381278716233334</v>
+        <v>3.215844809263333</v>
       </c>
       <c r="R5">
-        <v>39.4315084461</v>
+        <v>28.94260328337</v>
       </c>
       <c r="S5">
-        <v>0.002284246836951701</v>
+        <v>0.003391775588529729</v>
       </c>
       <c r="T5">
-        <v>0.0022842468369517</v>
+        <v>0.003391775588529729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H6">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N6">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O6">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P6">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q6">
-        <v>281.6312404919006</v>
+        <v>81.84579585551833</v>
       </c>
       <c r="R6">
-        <v>2534.681164427105</v>
+        <v>736.6121626996651</v>
       </c>
       <c r="S6">
-        <v>0.1468327654884914</v>
+        <v>0.08632337344354819</v>
       </c>
       <c r="T6">
-        <v>0.1468327654884913</v>
+        <v>0.08632337344354819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J7">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N7">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O7">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P7">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q7">
-        <v>0.238167248176</v>
+        <v>0.04482960740622223</v>
       </c>
       <c r="R7">
-        <v>2.143505233584</v>
+        <v>0.4034664666560001</v>
       </c>
       <c r="S7">
-        <v>0.0001241721466602412</v>
+        <v>4.728212244751551E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001241721466602412</v>
+        <v>4.72821224475155E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.923774</v>
       </c>
       <c r="O8">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P8">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q8">
         <v>0.267220874184</v>
@@ -948,10 +948,10 @@
         <v>2.404987867656</v>
       </c>
       <c r="S8">
-        <v>0.0001393197000594021</v>
+        <v>0.0002818398559507874</v>
       </c>
       <c r="T8">
-        <v>0.0001393197000594021</v>
+        <v>0.0002818398559507874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J9">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N9">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O9">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P9">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q9">
-        <v>6.783532251979999</v>
+        <v>3.872984601033778</v>
       </c>
       <c r="R9">
-        <v>61.05179026782</v>
+        <v>34.856861409304</v>
       </c>
       <c r="S9">
-        <v>0.003536698551619816</v>
+        <v>0.004084865845111195</v>
       </c>
       <c r="T9">
-        <v>0.003536698551619816</v>
+        <v>0.004084865845111195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J10">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N10">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O10">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P10">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q10">
-        <v>0.09730130109333333</v>
+        <v>0.09739627631555554</v>
       </c>
       <c r="R10">
-        <v>0.87571170984</v>
+        <v>0.87656648684</v>
       </c>
       <c r="S10">
-        <v>5.072952524801091E-05</v>
+        <v>0.0001027245815684965</v>
       </c>
       <c r="T10">
-        <v>5.072952524801091E-05</v>
+        <v>0.0001027245815684965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J11">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N11">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O11">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P11">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q11">
-        <v>6.254586366956889</v>
+        <v>2.478812324975555</v>
       </c>
       <c r="R11">
-        <v>56.291277302612</v>
+        <v>22.30931092478</v>
       </c>
       <c r="S11">
-        <v>0.003260924504124064</v>
+        <v>0.002614421911213019</v>
       </c>
       <c r="T11">
-        <v>0.003260924504124064</v>
+        <v>0.002614421911213019</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H12">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N12">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O12">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P12">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q12">
-        <v>10.828566764028</v>
+        <v>2.751801760509334</v>
       </c>
       <c r="R12">
-        <v>97.457100876252</v>
+        <v>24.766215844584</v>
       </c>
       <c r="S12">
-        <v>0.005645639317079674</v>
+        <v>0.002902345911992797</v>
       </c>
       <c r="T12">
-        <v>0.005645639317079674</v>
+        <v>0.002902345911992796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H13">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.923774</v>
       </c>
       <c r="O13">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P13">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q13">
-        <v>12.149525591802</v>
+        <v>16.402973716926</v>
       </c>
       <c r="R13">
-        <v>109.345730326218</v>
+        <v>147.626763452334</v>
       </c>
       <c r="S13">
-        <v>0.006334341456230569</v>
+        <v>0.01730033914326511</v>
       </c>
       <c r="T13">
-        <v>0.006334341456230569</v>
+        <v>0.01730033914326511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H14">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N14">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O14">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P14">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q14">
-        <v>308.4216341628149</v>
+        <v>237.7376573249007</v>
       </c>
       <c r="R14">
-        <v>2775.794707465335</v>
+        <v>2139.638915924106</v>
       </c>
       <c r="S14">
-        <v>0.1608003480065212</v>
+        <v>0.2507436864696088</v>
       </c>
       <c r="T14">
-        <v>0.1608003480065212</v>
+        <v>0.2507436864696088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H15">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N15">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O15">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P15">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q15">
-        <v>4.42392328578</v>
+        <v>5.978532049223333</v>
       </c>
       <c r="R15">
-        <v>39.81530957202</v>
+        <v>53.80678844301</v>
       </c>
       <c r="S15">
-        <v>0.002306480237154983</v>
+        <v>0.006305602497168837</v>
       </c>
       <c r="T15">
-        <v>0.002306480237154983</v>
+        <v>0.006305602497168837</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H16">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N16">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O16">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P16">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q16">
-        <v>284.372459163329</v>
+        <v>152.1583728813383</v>
       </c>
       <c r="R16">
-        <v>2559.352132469961</v>
+        <v>1369.425355932045</v>
       </c>
       <c r="S16">
-        <v>0.1482619418740071</v>
+        <v>0.1604825746698733</v>
       </c>
       <c r="T16">
-        <v>0.1482619418740071</v>
+        <v>0.1604825746698733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H17">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I17">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J17">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N17">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O17">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P17">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q17">
-        <v>2.362430652712</v>
+        <v>0.2137007608204445</v>
       </c>
       <c r="R17">
-        <v>21.261875874408</v>
+        <v>1.923306847384</v>
       </c>
       <c r="S17">
-        <v>0.001231689443992846</v>
+        <v>0.0002253917918281176</v>
       </c>
       <c r="T17">
-        <v>0.001231689443992846</v>
+        <v>0.0002253917918281176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H18">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I18">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J18">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.923774</v>
       </c>
       <c r="O18">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P18">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q18">
-        <v>2.650619634108</v>
+        <v>1.273830118626</v>
       </c>
       <c r="R18">
-        <v>23.85557670697199</v>
+        <v>11.464471067634</v>
       </c>
       <c r="S18">
-        <v>0.001381941188251676</v>
+        <v>0.001343518159783127</v>
       </c>
       <c r="T18">
-        <v>0.001381941188251676</v>
+        <v>0.001343518159783127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H19">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I19">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J19">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N19">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O19">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P19">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q19">
-        <v>67.28727248800999</v>
+        <v>18.46234673408955</v>
       </c>
       <c r="R19">
-        <v>605.5854523920899</v>
+        <v>166.161120606806</v>
       </c>
       <c r="S19">
-        <v>0.03508125122886118</v>
+        <v>0.01947237527733845</v>
       </c>
       <c r="T19">
-        <v>0.03508125122886119</v>
+        <v>0.01947237527733845</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H20">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I20">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J20">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N20">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O20">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P20">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q20">
-        <v>0.9651519174533333</v>
+        <v>0.464283752501111</v>
       </c>
       <c r="R20">
-        <v>8.686367257079999</v>
+        <v>4.17855377251</v>
       </c>
       <c r="S20">
-        <v>0.0005031967508599909</v>
+        <v>0.0004896835485804989</v>
       </c>
       <c r="T20">
-        <v>0.0005031967508599909</v>
+        <v>0.000489683548580499</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H21">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I21">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J21">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N21">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O21">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P21">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q21">
-        <v>62.04054783558821</v>
+        <v>11.81638899886611</v>
       </c>
       <c r="R21">
-        <v>558.3649305202939</v>
+        <v>106.347500989795</v>
       </c>
       <c r="S21">
-        <v>0.03234579088317596</v>
+        <v>0.01246283391396187</v>
       </c>
       <c r="T21">
-        <v>0.03234579088317596</v>
+        <v>0.01246283391396187</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H22">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N22">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O22">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P22">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q22">
-        <v>9.335466753964001</v>
+        <v>1.795939545191111</v>
       </c>
       <c r="R22">
-        <v>84.01920078567601</v>
+        <v>16.16345590672</v>
       </c>
       <c r="S22">
-        <v>0.004867188733097333</v>
+        <v>0.001894190879580965</v>
       </c>
       <c r="T22">
-        <v>0.004867188733097333</v>
+        <v>0.001894190879580965</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H23">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.923774</v>
       </c>
       <c r="O23">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P23">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q23">
-        <v>10.474284797826</v>
+        <v>10.70525848908</v>
       </c>
       <c r="R23">
-        <v>94.268563180434</v>
+        <v>96.34732640172</v>
       </c>
       <c r="S23">
-        <v>0.005460928981787039</v>
+        <v>0.01129091624930739</v>
       </c>
       <c r="T23">
-        <v>0.005460928981787037</v>
+        <v>0.01129091624930739</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H24">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N24">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O24">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P24">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q24">
-        <v>265.894829359595</v>
+        <v>155.1574195126089</v>
       </c>
       <c r="R24">
-        <v>2393.053464236355</v>
+        <v>1396.41677561348</v>
       </c>
       <c r="S24">
-        <v>0.1386283462579239</v>
+        <v>0.1636456915975014</v>
       </c>
       <c r="T24">
-        <v>0.1386283462579239</v>
+        <v>0.1636456915975014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H25">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N25">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O25">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P25">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q25">
-        <v>3.813929364473334</v>
+        <v>3.901837073977777</v>
       </c>
       <c r="R25">
-        <v>34.32536428026</v>
+        <v>35.1165336658</v>
       </c>
       <c r="S25">
-        <v>0.001988450553231466</v>
+        <v>0.004115296764264471</v>
       </c>
       <c r="T25">
-        <v>0.001988450553231466</v>
+        <v>0.004115296764264471</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H26">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N26">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O26">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P26">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q26">
-        <v>245.1616816992992</v>
+        <v>99.30484198067776</v>
       </c>
       <c r="R26">
-        <v>2206.455135293693</v>
+        <v>893.7435778260999</v>
       </c>
       <c r="S26">
-        <v>0.1278188018234171</v>
+        <v>0.1047375600596914</v>
       </c>
       <c r="T26">
-        <v>0.1278188018234171</v>
+        <v>0.1047375600596913</v>
       </c>
     </row>
   </sheetData>
